--- a/TC7.xlsx
+++ b/TC7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_TC07" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -1028,8 +1028,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,6 +1179,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1530,7 +1531,7 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1549,38 +1550,38 @@
     <col min="11" max="11" width="18.9809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1606,7 +1607,7 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1620,7 +1621,7 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1646,7 +1647,7 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1660,7 +1661,7 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1703,7 +1704,7 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1720,7 +1721,7 @@
       <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1737,7 +1738,7 @@
       <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1754,7 +1755,7 @@
       <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1771,7 +1772,7 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1788,7 +1789,7 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1802,7 +1803,7 @@
       <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1816,7 +1817,7 @@
       <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K14" t="s">
@@ -1833,7 +1834,7 @@
       <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K15" t="s">
@@ -1850,7 +1851,7 @@
       <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
@@ -1867,7 +1868,7 @@
       <c r="H17" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
@@ -1884,7 +1885,7 @@
       <c r="H18" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K18" t="s">
@@ -1901,7 +1902,7 @@
       <c r="H19" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K19" t="s">
@@ -1918,7 +1919,7 @@
       <c r="H20" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K20" t="s">
@@ -1935,7 +1936,7 @@
       <c r="H21" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K21" t="s">
@@ -1957,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2010,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2029,8 +2030,11 @@
       <c r="H2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="6:8">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="6:9">
       <c r="F3" t="s">
         <v>90</v>
       </c>
@@ -2040,8 +2044,11 @@
       <c r="H3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="6:8">
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9">
       <c r="F4" t="s">
         <v>93</v>
       </c>
@@ -2051,8 +2058,11 @@
       <c r="H4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="6:8">
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9">
       <c r="F5" t="s">
         <v>96</v>
       </c>
@@ -2062,8 +2072,11 @@
       <c r="H5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="6:8">
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9">
       <c r="F6" t="s">
         <v>99</v>
       </c>
@@ -2073,8 +2086,11 @@
       <c r="H6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="6:8">
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9">
       <c r="F7" t="s">
         <v>102</v>
       </c>
@@ -2084,8 +2100,11 @@
       <c r="H7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="6:8">
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
         <v>105</v>
       </c>
@@ -2095,8 +2114,11 @@
       <c r="H8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="6:8">
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
         <v>108</v>
       </c>
@@ -2106,8 +2128,11 @@
       <c r="H9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="6:8">
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
         <v>111</v>
       </c>
@@ -2117,8 +2142,11 @@
       <c r="H10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="6:8">
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9">
       <c r="F11" t="s">
         <v>114</v>
       </c>
@@ -2128,8 +2156,11 @@
       <c r="H11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="6:8">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9">
       <c r="F12" t="s">
         <v>117</v>
       </c>
@@ -2139,8 +2170,11 @@
       <c r="H12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="6:8">
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
         <v>120</v>
       </c>
@@ -2150,8 +2184,11 @@
       <c r="H13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="6:8">
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>123</v>
       </c>
@@ -2160,6 +2197,9 @@
       </c>
       <c r="H14" t="s">
         <v>125</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
